--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1922.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1922.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2.739026966759361</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1922.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1922.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>1.078386306762695</v>
       </c>
       <c r="B1">
-        <v>2.739026966759361</v>
+        <v>1.170966625213623</v>
       </c>
       <c r="C1">
-        <v>1.772194545947614</v>
+        <v>0.920451819896698</v>
       </c>
       <c r="D1">
-        <v>1.524116561882955</v>
+        <v>5.111706733703613</v>
       </c>
       <c r="E1">
-        <v>1.48361711693031</v>
+        <v>1.987619876861572</v>
       </c>
     </row>
   </sheetData>
